--- a/LAGOS variables.xlsx
+++ b/LAGOS variables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/fr55_duke_edu/Documents/1. DUKE/Ramos 3 Semestre/Hydrologic_Data_Analysis/hydrologic_data_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\OneDrive - Duke University\1. DUKE\Ramos 3 Semestre\Hydrologic_Data_Analysis\hydrologic_data_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C740030-3D6A-40D0-8795-51328174EEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6C740030-3D6A-40D0-8795-51328174EEEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0070F446-309B-4EFE-9E6B-06FBE7FBA084}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1490" windowWidth="11000" windowHeight="7360" xr2:uid="{CC7C4196-2CCF-4A0F-A6BA-B978A20BB9D3}"/>
+    <workbookView xWindow="7970" yWindow="1390" windowWidth="14400" windowHeight="8490" xr2:uid="{CC7C4196-2CCF-4A0F-A6BA-B978A20BB9D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -220,12 +220,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,11 +252,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB968D39-A61B-4335-AD1D-F9629E9D2B6A}">
   <dimension ref="B1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +777,7 @@
       <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -796,7 +810,7 @@
       <c r="D39">
         <v>1992</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -815,7 +829,7 @@
       <c r="C41">
         <v>24</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -831,7 +845,7 @@
       <c r="C43">
         <v>32</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -847,7 +861,7 @@
       <c r="C45">
         <v>41</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -887,7 +901,7 @@
       <c r="C50">
         <v>61</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -943,7 +957,7 @@
       <c r="C57">
         <v>91</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -969,6 +983,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FFC824C2D2152544867ACAC71A3EA81D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ae0bbef67adc803c635aa89b6a985a7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9dfb5e98-92c0-4478-8c7f-386f5f9fd78c" xmlns:ns4="86fde609-c477-47a6-bba5-8f2cbd4ac2a0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7ac8dce9a3adf8fc5bbafc14f2e38084" ns3:_="" ns4:_="">
     <xsd:import namespace="9dfb5e98-92c0-4478-8c7f-386f5f9fd78c"/>
@@ -1191,22 +1220,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3047E292-AE51-4FEB-AD3D-37A559BC7D80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815E286B-62AD-4189-ABDB-05090730C3D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B09E1A-8959-4123-8A4D-D3372337BD03}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1223,21 +1254,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815E286B-62AD-4189-ABDB-05090730C3D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3047E292-AE51-4FEB-AD3D-37A559BC7D80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>